--- a/assets/Grande.xlsx
+++ b/assets/Grande.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaspradignac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768D4C7-DF12-BB46-8C64-C9D2ED799850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68985B15-258B-1C40-998D-7B1D4273B622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="27180" windowHeight="19840" xr2:uid="{0E25F3FA-30B7-4548-A2E6-27E425FF4E52}"/>
   </bookViews>
@@ -359,10 +359,10 @@
     <t>Incidents</t>
   </si>
   <si>
-    <t>Fiche de production Cuve de 7000 L</t>
-  </si>
-  <si>
     <t>Hauteur (cm)</t>
+  </si>
+  <si>
+    <t>CUVES 5000 L</t>
   </si>
 </sst>
 </file>
@@ -374,9 +374,9 @@
     <numFmt numFmtId="165" formatCode="#,##0&quot; L&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0&quot; cm&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="ddmmyy"/>
+    <numFmt numFmtId="168" formatCode="ddmmyy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -550,6 +550,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1339,6 +1346,69 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,6 +1424,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1363,6 +1442,75 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,165 +1520,24 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1915,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC692FA-4504-2847-8060-0EEE7AA95510}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScale="157" zoomScaleNormal="100" zoomScalePageLayoutView="157" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:D48"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A21" zoomScale="157" zoomScaleNormal="100" zoomScalePageLayoutView="157" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1929,62 +1936,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="143" t="s">
+      <c r="A1" s="156" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="144"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="145" t="s">
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="146"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="147" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="148"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="158"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="149" t="s">
+      <c r="A4" s="160"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="150"/>
+      <c r="J4" s="106"/>
     </row>
     <row r="5" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -1999,18 +2006,18 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -2028,15 +2035,15 @@
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="140"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
     </row>
     <row r="9" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -2054,8 +2061,8 @@
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2063,11 +2070,11 @@
       <c r="H10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="152">
+      <c r="I10" s="117">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="153"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2083,36 +2090,36 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99" t="s">
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="100"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="102"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="102"/>
+      <c r="G13" s="128"/>
       <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
@@ -2202,17 +2209,17 @@
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="107">
+      <c r="B17" s="124">
         <f>(SUM(B15:E15)*0.33+SUM(F15:I15)*0.75)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="126"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2228,18 +2235,18 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="111" t="s">
+      <c r="A19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="111"/>
     </row>
     <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -2260,11 +2267,11 @@
       <c r="F20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="133" t="s">
+      <c r="G20" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="134"/>
-      <c r="I20" s="135"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
       <c r="J20" s="23" t="s">
         <v>29</v>
       </c>
@@ -2278,9 +2285,9 @@
       <c r="F21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
       <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2292,9 +2299,9 @@
       <c r="F22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="136"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
       <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2306,9 +2313,9 @@
       <c r="F23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="136"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
       <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2320,9 +2327,9 @@
       <c r="F24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="136"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2342,7 +2349,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="151"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="37" t="s">
         <v>32</v>
       </c>
@@ -2356,7 +2363,7 @@
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="151"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="37" t="s">
         <v>33</v>
       </c>
@@ -2395,10 +2402,10 @@
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="42">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!C:C)</f>
         <v>0</v>
@@ -2406,10 +2413,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="114" t="s">
+      <c r="G30" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="115"/>
+      <c r="H30" s="141"/>
       <c r="I30" s="80" t="s">
         <v>95</v>
       </c>
@@ -2418,10 +2425,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="130"/>
+      <c r="B31" s="138"/>
       <c r="C31" s="43">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!D:D)</f>
         <v>0</v>
@@ -2429,10 +2436,10 @@
       <c r="D31" s="47"/>
       <c r="E31" s="48"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="116" t="s">
+      <c r="G31" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="117"/>
+      <c r="H31" s="142"/>
       <c r="I31" s="77">
         <f>SUM(B15:E15)</f>
         <v>0</v>
@@ -2443,10 +2450,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="130"/>
+      <c r="B32" s="138"/>
       <c r="C32" s="43">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!E:E)</f>
         <v>0</v>
@@ -2468,10 +2475,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="131" t="s">
+      <c r="A33" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="132"/>
+      <c r="B33" s="134"/>
       <c r="C33" s="53">
         <f>_xlfn.XLOOKUP(_xlfn.XLOOKUP(B8,Data!A:A,Data!B:B),Recettes!B:B,Recettes!F:F)</f>
         <v>0</v>
@@ -2505,10 +2512,10 @@
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="128"/>
+      <c r="B35" s="136"/>
       <c r="C35" s="49">
         <f>B17+800</f>
         <v>800</v>
@@ -2530,10 +2537,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="129" t="s">
+      <c r="A36" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="130"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="50" t="e">
         <f>'CUVE 3 et 4 Mesure'!G6</f>
         <v>#DIV/0!</v>
@@ -2547,10 +2554,10 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="130"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="50" t="s">
         <v>42</v>
       </c>
@@ -2563,10 +2570,10 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="132"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="51" t="s">
         <v>44</v>
       </c>
@@ -2609,9 +2616,9 @@
         <f>A8</f>
         <v>Produit  :</v>
       </c>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="119"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2623,12 +2630,12 @@
       <c r="A42" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="124">
+      <c r="B42" s="149">
         <f>IF(ISNUMBER( SEARCH("Infusion",B8)), 0, (C35-400)*60%)</f>
         <v>240</v>
       </c>
-      <c r="C42" s="124"/>
-      <c r="D42" s="125"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="150"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2640,12 +2647,12 @@
       <c r="A43" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="124">
+      <c r="B43" s="149">
         <f>IF(ISNUMBER(SEARCH("infusion",B8)),0,_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+B42)</f>
         <v>240</v>
       </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="125"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="150"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2657,12 +2664,12 @@
       <c r="A44" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="126">
+      <c r="B44" s="151">
         <f>'CUVE 3 et 4 Mesure'!G13</f>
         <v>15.52</v>
       </c>
-      <c r="C44" s="126"/>
-      <c r="D44" s="127"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="152"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2701,9 +2708,9 @@
         <f>A14</f>
         <v>Quantité</v>
       </c>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="119"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2715,12 +2722,12 @@
       <c r="A48" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="120">
+      <c r="B48" s="145">
         <f>_xlfn.XLOOKUP(B8,Data!E:E,Data!F:F)*'Fiche de production'!C35+C35-400</f>
         <v>400</v>
       </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="121"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="146"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2732,12 +2739,12 @@
       <c r="A49" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="122" t="e">
+      <c r="B49" s="147" t="e">
         <f>'CUVE 3 et 4 Mesure'!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="148"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2802,15 +2809,10 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="37" t="s">
-        <v>88</v>
-      </c>
+      <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="76">
-        <f>A21</f>
-        <v>0</v>
-      </c>
+      <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
@@ -2824,19 +2826,17 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A56" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="112"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="113"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
@@ -2845,216 +2845,221 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="G57" s="37" t="s">
+        <v>88</v>
+      </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="J57" s="76">
+        <f>A21</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
-      <c r="B58" s="86" t="str">
-        <f>A8</f>
-        <v>Produit  :</v>
-      </c>
-      <c r="C58" s="110">
-        <f>B8</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="110"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+    <row r="59" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="111"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="96" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="86" t="str">
+        <f>A8</f>
+        <v>Produit  :</v>
+      </c>
+      <c r="C61" s="139">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="99" t="s">
+      <c r="C63" s="120"/>
+      <c r="D63" s="120"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="8"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="101" t="s">
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="123"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="12"/>
+      <c r="B64" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="102"/>
-      <c r="D61" s="2" t="s">
+      <c r="C64" s="128"/>
+      <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="103" t="s">
+      <c r="F64" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="G61" s="102"/>
-      <c r="H61" s="2" t="s">
+      <c r="G64" s="128"/>
+      <c r="H64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="8"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="I65" s="2"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="2" t="e">
+      <c r="B66" s="2" t="e">
         <f>ROUNDDOWN(((B15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C63" s="2" t="e">
+      <c r="C66" s="2" t="e">
         <f>ROUNDDOWN(((C15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D63" s="2" t="e">
-        <f t="shared" ref="D63:I63" si="0">ROUNDDOWN(((D15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
+      <c r="D66" s="2" t="e">
+        <f t="shared" ref="D66:H66" si="0">ROUNDDOWN(((D15*0.33/$B$17)*($B$48-200)/0.33),0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="3" t="e">
+      <c r="E66" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F63" s="1" t="e">
+      <c r="F66" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="2" t="e">
+      <c r="G66" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="2" t="e">
+      <c r="H66" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I63" s="2"/>
-      <c r="J63" s="8"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="I66" s="2"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="2" t="e">
-        <f>ROUNDUP(B63/12,0)</f>
+      <c r="B67" s="2" t="e">
+        <f>ROUNDUP(B66/12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C64" s="2" t="e">
-        <f>ROUNDUP(C63/6,0)</f>
+      <c r="C67" s="2" t="e">
+        <f>ROUNDUP(C66/6,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D64" s="2" t="e">
-        <f t="shared" ref="C64:I64" si="1">ROUNDUP(D63/12,0)</f>
+      <c r="D67" s="2" t="e">
+        <f t="shared" ref="D67:E67" si="1">ROUNDUP(D66/12,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E64" s="3" t="e">
+      <c r="E67" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F64" s="1" t="e">
-        <f>ROUNDUP(F63/6,0)</f>
+      <c r="F67" s="1" t="e">
+        <f>ROUNDUP(F66/6,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G64" s="2" t="e">
-        <f>ROUNDUP(G63/4,0)</f>
+      <c r="G67" s="2" t="e">
+        <f>ROUNDUP(G66/4,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="2" t="e">
-        <f>ROUNDUP(H63/6,0)</f>
+      <c r="H67" s="2" t="e">
+        <f>ROUNDUP(H66/6,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I64" s="2"/>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-    </row>
-    <row r="67" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A67" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="112"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="113"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -3070,288 +3075,290 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
-      <c r="B69" s="86" t="str">
-        <f>B58</f>
-        <v>Produit  :</v>
-      </c>
-      <c r="C69" s="110">
-        <f>C58</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="110"/>
-      <c r="E69" s="110"/>
-      <c r="F69" s="110"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+    <row r="70" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="110"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="110"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="110"/>
+      <c r="J70" s="111"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="96" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="86" t="str">
+        <f>B61</f>
+        <v>Produit  :</v>
+      </c>
+      <c r="C72" s="139">
+        <f>C61</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="139"/>
+      <c r="E72" s="139"/>
+      <c r="F72" s="139"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="99" t="s">
+      <c r="C74" s="120"/>
+      <c r="D74" s="120"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="100"/>
-      <c r="J71" s="8"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="101" t="s">
+      <c r="G74" s="120"/>
+      <c r="H74" s="120"/>
+      <c r="I74" s="123"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="12"/>
+      <c r="B75" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="102"/>
-      <c r="D72" s="2" t="s">
+      <c r="C75" s="128"/>
+      <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E75" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F72" s="103" t="s">
+      <c r="F75" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="G72" s="102"/>
-      <c r="H72" s="2" t="s">
+      <c r="G75" s="128"/>
+      <c r="H75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I73" s="2"/>
-      <c r="J73" s="8"/>
-    </row>
-    <row r="74" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="I76" s="2"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="8"/>
-    </row>
-    <row r="76" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="104">
+      <c r="B79" s="153">
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="106"/>
-      <c r="J76" s="8"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="8" t="s">
+      <c r="C79" s="154"/>
+      <c r="D79" s="154"/>
+      <c r="E79" s="154"/>
+      <c r="F79" s="154"/>
+      <c r="G79" s="154"/>
+      <c r="H79" s="154"/>
+      <c r="I79" s="155"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-    </row>
-    <row r="79" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+    </row>
+    <row r="82" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="8"/>
-    </row>
-    <row r="81" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="8"/>
+    </row>
+    <row r="84" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="8"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="87" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="B84" s="88"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="88"/>
-      <c r="I84" s="88"/>
-      <c r="J84" s="92"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="89"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="93"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="93"/>
-      <c r="J85" s="94"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="89"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="94"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="89"/>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="93"/>
-      <c r="H87" s="93"/>
-      <c r="I87" s="93"/>
-      <c r="J87" s="94"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="88"/>
+      <c r="F87" s="88"/>
+      <c r="G87" s="88"/>
+      <c r="H87" s="88"/>
+      <c r="I87" s="88"/>
+      <c r="J87" s="92"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="89"/>
@@ -3366,78 +3373,78 @@
       <c r="J88" s="94"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="95"/>
+      <c r="A89" s="89"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="93"/>
+      <c r="J89" s="94"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="A90" s="89"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="93"/>
+      <c r="I90" s="93"/>
+      <c r="J90" s="94"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="89"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="93"/>
+      <c r="I91" s="93"/>
+      <c r="J91" s="94"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="90"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="91"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="91"/>
+      <c r="I92" s="91"/>
+      <c r="J92" s="95"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="88"/>
-      <c r="H91" s="88"/>
-      <c r="I91" s="88"/>
-      <c r="J91" s="92"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="89"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="93"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
-      <c r="I92" s="93"/>
-      <c r="J92" s="94"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="89"/>
-      <c r="B93" s="93"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="93"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="93"/>
-      <c r="I93" s="93"/>
-      <c r="J93" s="94"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="89"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="93"/>
-      <c r="I94" s="93"/>
-      <c r="J94" s="94"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="88"/>
+      <c r="F94" s="88"/>
+      <c r="G94" s="88"/>
+      <c r="H94" s="88"/>
+      <c r="I94" s="88"/>
+      <c r="J94" s="92"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="89"/>
@@ -3452,36 +3459,97 @@
       <c r="J95" s="94"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="90"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="91"/>
-      <c r="G96" s="91"/>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
-      <c r="J96" s="95"/>
+      <c r="A96" s="89"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="93"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="93"/>
+      <c r="H96" s="93"/>
+      <c r="I96" s="93"/>
+      <c r="J96" s="94"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="A97" s="89"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="94"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="89"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="93"/>
+      <c r="D98" s="93"/>
+      <c r="E98" s="93"/>
+      <c r="F98" s="93"/>
+      <c r="G98" s="93"/>
+      <c r="H98" s="93"/>
+      <c r="I98" s="93"/>
+      <c r="J98" s="94"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="90"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="91"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="91"/>
+      <c r="J99" s="95"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="B8:J8"/>
@@ -3497,41 +3565,16 @@
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C15 G15 C64:I64" formula="1"/>
+    <ignoredError sqref="C15 G15 C67:I67" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3950,11 +3993,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="160" t="s">
-        <v>107</v>
+      <c r="B1" s="97" t="s">
+        <v>106</v>
       </c>
       <c r="C1" s="59"/>
       <c r="D1" s="59"/>
@@ -3972,7 +4015,7 @@
       <c r="A2">
         <v>50</v>
       </c>
-      <c r="B2" s="161">
+      <c r="B2" s="98">
         <v>3.3</v>
       </c>
       <c r="F2" s="60" t="s">
@@ -3988,7 +4031,7 @@
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="98">
         <v>7.5</v>
       </c>
       <c r="F3" s="60" t="s">
@@ -4004,7 +4047,7 @@
       <c r="A4">
         <v>150</v>
       </c>
-      <c r="B4" s="161">
+      <c r="B4" s="98">
         <v>10.8</v>
       </c>
       <c r="F4" s="60" t="s">
@@ -4020,7 +4063,7 @@
       <c r="A5">
         <v>200</v>
       </c>
-      <c r="B5" s="161">
+      <c r="B5" s="98">
         <v>13.6</v>
       </c>
       <c r="F5" s="60" t="s">
@@ -4036,7 +4079,7 @@
       <c r="A6">
         <v>250</v>
       </c>
-      <c r="B6" s="161">
+      <c r="B6" s="98">
         <v>16</v>
       </c>
       <c r="F6" s="59" t="s">
@@ -4052,7 +4095,7 @@
       <c r="A7">
         <v>300</v>
       </c>
-      <c r="B7" s="161">
+      <c r="B7" s="98">
         <v>18.2</v>
       </c>
     </row>
@@ -4060,7 +4103,7 @@
       <c r="A8">
         <v>350</v>
       </c>
-      <c r="B8" s="161">
+      <c r="B8" s="98">
         <v>20.399999999999999</v>
       </c>
       <c r="F8" s="59" t="s">
@@ -4075,7 +4118,7 @@
       <c r="A9">
         <v>400</v>
       </c>
-      <c r="B9" s="161">
+      <c r="B9" s="98">
         <v>22.4</v>
       </c>
       <c r="F9" s="60" t="s">
@@ -4089,10 +4132,10 @@
       <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="161">
+      <c r="A10" s="98">
         <v>428.57142857142861</v>
       </c>
-      <c r="B10" s="161">
+      <c r="B10" s="98">
         <v>24</v>
       </c>
       <c r="F10" s="60" t="s">
@@ -4108,7 +4151,7 @@
       <c r="A11">
         <v>450</v>
       </c>
-      <c r="B11" s="161">
+      <c r="B11" s="98">
         <v>24.3</v>
       </c>
       <c r="F11" s="60" t="s">
@@ -4124,7 +4167,7 @@
       <c r="A12">
         <v>500</v>
       </c>
-      <c r="B12" s="161">
+      <c r="B12" s="98">
         <v>26</v>
       </c>
       <c r="F12" s="60" t="s">
@@ -4140,7 +4183,7 @@
       <c r="A13">
         <v>550</v>
       </c>
-      <c r="B13" s="161">
+      <c r="B13" s="98">
         <v>27.5</v>
       </c>
       <c r="F13" s="59" t="s">
@@ -4156,7 +4199,7 @@
       <c r="A14">
         <v>600</v>
       </c>
-      <c r="B14" s="161">
+      <c r="B14" s="98">
         <v>29.2</v>
       </c>
       <c r="I14" s="59"/>
@@ -4166,7 +4209,7 @@
       <c r="A15">
         <v>650</v>
       </c>
-      <c r="B15" s="161">
+      <c r="B15" s="98">
         <v>30.9</v>
       </c>
     </row>
@@ -4174,7 +4217,7 @@
       <c r="A16">
         <v>700</v>
       </c>
-      <c r="B16" s="161">
+      <c r="B16" s="98">
         <v>32.700000000000003</v>
       </c>
       <c r="D16" s="62"/>
@@ -4190,7 +4233,7 @@
       <c r="A17">
         <v>750</v>
       </c>
-      <c r="B17" s="161">
+      <c r="B17" s="98">
         <v>34.5</v>
       </c>
       <c r="D17" s="62"/>
@@ -4206,7 +4249,7 @@
       <c r="A18">
         <v>800</v>
       </c>
-      <c r="B18" s="161">
+      <c r="B18" s="98">
         <v>36</v>
       </c>
       <c r="D18" s="62"/>
@@ -4222,7 +4265,7 @@
       <c r="A19">
         <v>850</v>
       </c>
-      <c r="B19" s="161">
+      <c r="B19" s="98">
         <v>37.6</v>
       </c>
       <c r="D19" s="62"/>
@@ -4238,7 +4281,7 @@
       <c r="A20">
         <v>900</v>
       </c>
-      <c r="B20" s="161">
+      <c r="B20" s="98">
         <v>39.299999999999997</v>
       </c>
       <c r="D20" s="62"/>
@@ -4254,7 +4297,7 @@
       <c r="A21">
         <v>950</v>
       </c>
-      <c r="B21" s="161">
+      <c r="B21" s="98">
         <v>41</v>
       </c>
       <c r="D21" s="62"/>
@@ -4270,7 +4313,7 @@
       <c r="A22">
         <v>1000</v>
       </c>
-      <c r="B22" s="161">
+      <c r="B22" s="98">
         <v>42.5</v>
       </c>
       <c r="D22" s="62"/>
@@ -4279,7 +4322,7 @@
       <c r="A23">
         <v>1050</v>
       </c>
-      <c r="B23" s="161">
+      <c r="B23" s="98">
         <v>43.8</v>
       </c>
       <c r="D23" s="62"/>
@@ -4288,7 +4331,7 @@
       <c r="A24">
         <v>1100</v>
       </c>
-      <c r="B24" s="161">
+      <c r="B24" s="98">
         <v>45</v>
       </c>
       <c r="D24" s="62"/>
@@ -4297,7 +4340,7 @@
       <c r="A25">
         <v>1150</v>
       </c>
-      <c r="B25" s="161">
+      <c r="B25" s="98">
         <v>46.6</v>
       </c>
       <c r="D25" s="62"/>
@@ -4306,7 +4349,7 @@
       <c r="A26">
         <v>1200</v>
       </c>
-      <c r="B26" s="161">
+      <c r="B26" s="98">
         <v>48.274213734037033</v>
       </c>
       <c r="D26" s="62"/>
@@ -4315,7 +4358,7 @@
       <c r="A27">
         <v>1250</v>
       </c>
-      <c r="B27" s="161">
+      <c r="B27" s="98">
         <v>49.948427468074065</v>
       </c>
       <c r="D27" s="62"/>
@@ -4324,7 +4367,7 @@
       <c r="A28">
         <v>1300</v>
       </c>
-      <c r="B28" s="161">
+      <c r="B28" s="98">
         <v>51.622641202111097</v>
       </c>
       <c r="D28" s="62"/>
@@ -4333,7 +4376,7 @@
       <c r="A29">
         <v>1350</v>
       </c>
-      <c r="B29" s="161">
+      <c r="B29" s="98">
         <v>53.296854936148129</v>
       </c>
       <c r="D29" s="62"/>
@@ -4342,7 +4385,7 @@
       <c r="A30">
         <v>1400</v>
       </c>
-      <c r="B30" s="161">
+      <c r="B30" s="98">
         <v>54.971068670185161</v>
       </c>
     </row>
@@ -4350,7 +4393,7 @@
       <c r="A31">
         <v>1450</v>
       </c>
-      <c r="B31" s="161">
+      <c r="B31" s="98">
         <v>56.645282404222193</v>
       </c>
     </row>
@@ -4358,7 +4401,7 @@
       <c r="A32">
         <v>1500</v>
       </c>
-      <c r="B32" s="161">
+      <c r="B32" s="98">
         <v>58.319496138259225</v>
       </c>
     </row>
@@ -4366,7 +4409,7 @@
       <c r="A33">
         <v>1550</v>
       </c>
-      <c r="B33" s="161">
+      <c r="B33" s="98">
         <v>59.993709872296257</v>
       </c>
     </row>
@@ -4374,7 +4417,7 @@
       <c r="A34">
         <v>1600</v>
       </c>
-      <c r="B34" s="161">
+      <c r="B34" s="98">
         <v>61.667923606333289</v>
       </c>
     </row>
@@ -4382,7 +4425,7 @@
       <c r="A35">
         <v>1650</v>
       </c>
-      <c r="B35" s="161">
+      <c r="B35" s="98">
         <v>63.342137340370321</v>
       </c>
     </row>
@@ -4390,7 +4433,7 @@
       <c r="A36">
         <v>1700</v>
       </c>
-      <c r="B36" s="161">
+      <c r="B36" s="98">
         <v>65.016351074407353</v>
       </c>
     </row>
@@ -4398,7 +4441,7 @@
       <c r="A37">
         <v>1750</v>
       </c>
-      <c r="B37" s="161">
+      <c r="B37" s="98">
         <v>66.690564808444378</v>
       </c>
     </row>
@@ -4406,7 +4449,7 @@
       <c r="A38">
         <v>1800</v>
       </c>
-      <c r="B38" s="161">
+      <c r="B38" s="98">
         <v>68.364778542481417</v>
       </c>
     </row>
@@ -4414,7 +4457,7 @@
       <c r="A39">
         <v>1850</v>
       </c>
-      <c r="B39" s="161">
+      <c r="B39" s="98">
         <v>70.038992276518456</v>
       </c>
     </row>
@@ -4422,7 +4465,7 @@
       <c r="A40">
         <v>1900</v>
       </c>
-      <c r="B40" s="161">
+      <c r="B40" s="98">
         <v>71.713206010555496</v>
       </c>
     </row>
@@ -4430,7 +4473,7 @@
       <c r="A41">
         <v>1950</v>
       </c>
-      <c r="B41" s="161">
+      <c r="B41" s="98">
         <v>73.387419744592535</v>
       </c>
     </row>
@@ -4438,7 +4481,7 @@
       <c r="A42">
         <v>2000</v>
       </c>
-      <c r="B42" s="161">
+      <c r="B42" s="98">
         <v>75.061633478629574</v>
       </c>
     </row>
@@ -4446,7 +4489,7 @@
       <c r="A43">
         <v>2050</v>
       </c>
-      <c r="B43" s="161">
+      <c r="B43" s="98">
         <v>76.735847212666613</v>
       </c>
     </row>
@@ -4454,7 +4497,7 @@
       <c r="A44">
         <v>2100</v>
       </c>
-      <c r="B44" s="161">
+      <c r="B44" s="98">
         <v>78.410060946703652</v>
       </c>
     </row>
@@ -4462,7 +4505,7 @@
       <c r="A45">
         <v>2150</v>
       </c>
-      <c r="B45" s="161">
+      <c r="B45" s="98">
         <v>80.084274680740691</v>
       </c>
     </row>
@@ -4470,7 +4513,7 @@
       <c r="A46">
         <v>2200</v>
       </c>
-      <c r="B46" s="161">
+      <c r="B46" s="98">
         <v>81.75848841477773</v>
       </c>
     </row>
@@ -4478,7 +4521,7 @@
       <c r="A47">
         <v>2250</v>
       </c>
-      <c r="B47" s="161">
+      <c r="B47" s="98">
         <v>83.432702148814769</v>
       </c>
     </row>
@@ -4486,7 +4529,7 @@
       <c r="A48">
         <v>2300</v>
       </c>
-      <c r="B48" s="161">
+      <c r="B48" s="98">
         <v>85.106915882851808</v>
       </c>
     </row>
@@ -4494,7 +4537,7 @@
       <c r="A49">
         <v>2350</v>
       </c>
-      <c r="B49" s="161">
+      <c r="B49" s="98">
         <v>86.781129616888848</v>
       </c>
     </row>
@@ -4502,7 +4545,7 @@
       <c r="A50">
         <v>2400</v>
       </c>
-      <c r="B50" s="161">
+      <c r="B50" s="98">
         <v>88.455343350925887</v>
       </c>
     </row>
@@ -4510,7 +4553,7 @@
       <c r="A51">
         <v>2450</v>
       </c>
-      <c r="B51" s="161">
+      <c r="B51" s="98">
         <v>90.129557084962926</v>
       </c>
     </row>
@@ -4518,7 +4561,7 @@
       <c r="A52">
         <v>2500</v>
       </c>
-      <c r="B52" s="161">
+      <c r="B52" s="98">
         <v>91.803770818999965</v>
       </c>
     </row>
@@ -4526,7 +4569,7 @@
       <c r="A53">
         <v>2550</v>
       </c>
-      <c r="B53" s="161">
+      <c r="B53" s="98">
         <v>93.477984553037004</v>
       </c>
     </row>
@@ -4534,7 +4577,7 @@
       <c r="A54">
         <v>2600</v>
       </c>
-      <c r="B54" s="161">
+      <c r="B54" s="98">
         <v>95.152198287074043</v>
       </c>
     </row>
@@ -4542,7 +4585,7 @@
       <c r="A55">
         <v>2650</v>
       </c>
-      <c r="B55" s="161">
+      <c r="B55" s="98">
         <v>96.826412021111082</v>
       </c>
     </row>
@@ -4550,7 +4593,7 @@
       <c r="A56">
         <v>2700</v>
       </c>
-      <c r="B56" s="161">
+      <c r="B56" s="98">
         <v>98.500625755148121</v>
       </c>
     </row>
@@ -4558,7 +4601,7 @@
       <c r="A57">
         <v>2750</v>
       </c>
-      <c r="B57" s="161">
+      <c r="B57" s="98">
         <v>100.17483948918516</v>
       </c>
     </row>
@@ -4566,7 +4609,7 @@
       <c r="A58">
         <v>2800</v>
       </c>
-      <c r="B58" s="161">
+      <c r="B58" s="98">
         <v>101.8490532232222</v>
       </c>
     </row>
@@ -4574,7 +4617,7 @@
       <c r="A59">
         <v>2850</v>
       </c>
-      <c r="B59" s="161">
+      <c r="B59" s="98">
         <v>103.52326695725924</v>
       </c>
     </row>
@@ -4582,7 +4625,7 @@
       <c r="A60">
         <v>2900</v>
       </c>
-      <c r="B60" s="161">
+      <c r="B60" s="98">
         <v>105.19748069129628</v>
       </c>
     </row>
@@ -4590,7 +4633,7 @@
       <c r="A61">
         <v>2950</v>
       </c>
-      <c r="B61" s="161">
+      <c r="B61" s="98">
         <v>106.87169442533332</v>
       </c>
     </row>
@@ -4598,7 +4641,7 @@
       <c r="A62">
         <v>3000</v>
       </c>
-      <c r="B62" s="161">
+      <c r="B62" s="98">
         <v>108.54590815937036</v>
       </c>
     </row>
@@ -4606,7 +4649,7 @@
       <c r="A63">
         <v>3050</v>
       </c>
-      <c r="B63" s="161">
+      <c r="B63" s="98">
         <v>110.22012189340739</v>
       </c>
     </row>
@@ -4614,7 +4657,7 @@
       <c r="A64">
         <v>3100</v>
       </c>
-      <c r="B64" s="161">
+      <c r="B64" s="98">
         <v>111.89433562744443</v>
       </c>
     </row>
@@ -4622,7 +4665,7 @@
       <c r="A65">
         <v>3150</v>
       </c>
-      <c r="B65" s="161">
+      <c r="B65" s="98">
         <v>113.56854936148147</v>
       </c>
     </row>
@@ -4630,7 +4673,7 @@
       <c r="A66">
         <v>3200</v>
       </c>
-      <c r="B66" s="161">
+      <c r="B66" s="98">
         <v>115.24276309551851</v>
       </c>
     </row>
@@ -4638,7 +4681,7 @@
       <c r="A67">
         <v>3250</v>
       </c>
-      <c r="B67" s="161">
+      <c r="B67" s="98">
         <v>116.91697682955555</v>
       </c>
     </row>
@@ -4646,7 +4689,7 @@
       <c r="A68">
         <v>3300</v>
       </c>
-      <c r="B68" s="161">
+      <c r="B68" s="98">
         <v>118.59119056359259</v>
       </c>
     </row>
@@ -4654,7 +4697,7 @@
       <c r="A69">
         <v>3350</v>
       </c>
-      <c r="B69" s="161">
+      <c r="B69" s="98">
         <v>120.26540429762963</v>
       </c>
     </row>
@@ -4662,7 +4705,7 @@
       <c r="A70">
         <v>3400</v>
       </c>
-      <c r="B70" s="161">
+      <c r="B70" s="98">
         <v>121.93961803166667</v>
       </c>
     </row>
@@ -4670,7 +4713,7 @@
       <c r="A71">
         <v>3450</v>
       </c>
-      <c r="B71" s="161">
+      <c r="B71" s="98">
         <v>123.61383176570371</v>
       </c>
     </row>
@@ -4678,7 +4721,7 @@
       <c r="A72">
         <v>3500</v>
       </c>
-      <c r="B72" s="161">
+      <c r="B72" s="98">
         <v>125.28804549974075</v>
       </c>
     </row>
@@ -4686,7 +4729,7 @@
       <c r="A73">
         <v>3550</v>
       </c>
-      <c r="B73" s="161">
+      <c r="B73" s="98">
         <v>126.96225923377779</v>
       </c>
     </row>
@@ -4694,7 +4737,7 @@
       <c r="A74">
         <v>3600</v>
       </c>
-      <c r="B74" s="161">
+      <c r="B74" s="98">
         <v>128.63647296781483</v>
       </c>
     </row>
@@ -4702,7 +4745,7 @@
       <c r="A75">
         <v>3650</v>
       </c>
-      <c r="B75" s="161">
+      <c r="B75" s="98">
         <v>130.31068670185186</v>
       </c>
     </row>
@@ -4710,7 +4753,7 @@
       <c r="A76">
         <v>3700</v>
       </c>
-      <c r="B76" s="161">
+      <c r="B76" s="98">
         <v>131.9849004358889</v>
       </c>
     </row>
@@ -4718,7 +4761,7 @@
       <c r="A77">
         <v>3750</v>
       </c>
-      <c r="B77" s="161">
+      <c r="B77" s="98">
         <v>133.65911416992594</v>
       </c>
     </row>
@@ -4726,7 +4769,7 @@
       <c r="A78">
         <v>3800</v>
       </c>
-      <c r="B78" s="161">
+      <c r="B78" s="98">
         <v>135.33332790396298</v>
       </c>
     </row>
@@ -4734,7 +4777,7 @@
       <c r="A79">
         <v>3850</v>
       </c>
-      <c r="B79" s="161">
+      <c r="B79" s="98">
         <v>137.00754163800002</v>
       </c>
     </row>
@@ -4742,7 +4785,7 @@
       <c r="A80">
         <v>3900</v>
       </c>
-      <c r="B80" s="161">
+      <c r="B80" s="98">
         <v>138.68175537203706</v>
       </c>
     </row>
@@ -4750,7 +4793,7 @@
       <c r="A81">
         <v>3950</v>
       </c>
-      <c r="B81" s="161">
+      <c r="B81" s="98">
         <v>140.3559691060741</v>
       </c>
     </row>
@@ -4758,7 +4801,7 @@
       <c r="A82">
         <v>4000</v>
       </c>
-      <c r="B82" s="161">
+      <c r="B82" s="98">
         <v>142.03018284011114</v>
       </c>
     </row>
@@ -4766,7 +4809,7 @@
       <c r="A83">
         <v>4050</v>
       </c>
-      <c r="B83" s="161">
+      <c r="B83" s="98">
         <v>143.70439657414818</v>
       </c>
     </row>
@@ -4774,7 +4817,7 @@
       <c r="A84">
         <v>4100</v>
       </c>
-      <c r="B84" s="161">
+      <c r="B84" s="98">
         <v>145.37861030818522</v>
       </c>
     </row>
@@ -4782,7 +4825,7 @@
       <c r="A85">
         <v>4150</v>
       </c>
-      <c r="B85" s="161">
+      <c r="B85" s="98">
         <v>147.05282404222226</v>
       </c>
     </row>
@@ -4790,7 +4833,7 @@
       <c r="A86">
         <v>4200</v>
       </c>
-      <c r="B86" s="161">
+      <c r="B86" s="98">
         <v>148.72703777625929</v>
       </c>
     </row>
@@ -4798,7 +4841,7 @@
       <c r="A87">
         <v>4250</v>
       </c>
-      <c r="B87" s="161">
+      <c r="B87" s="98">
         <v>150.40125151029633</v>
       </c>
     </row>
@@ -4806,7 +4849,7 @@
       <c r="A88">
         <v>4300</v>
       </c>
-      <c r="B88" s="161">
+      <c r="B88" s="98">
         <v>152.07546524433337</v>
       </c>
     </row>
@@ -4814,7 +4857,7 @@
       <c r="A89">
         <v>4350</v>
       </c>
-      <c r="B89" s="161">
+      <c r="B89" s="98">
         <v>153.74967897837041</v>
       </c>
     </row>
@@ -4822,7 +4865,7 @@
       <c r="A90">
         <v>4400</v>
       </c>
-      <c r="B90" s="161">
+      <c r="B90" s="98">
         <v>155.42389271240745</v>
       </c>
     </row>
@@ -4830,7 +4873,7 @@
       <c r="A91">
         <v>4450</v>
       </c>
-      <c r="B91" s="161">
+      <c r="B91" s="98">
         <v>157.09810644644449</v>
       </c>
     </row>
@@ -4838,7 +4881,7 @@
       <c r="A92">
         <v>4500</v>
       </c>
-      <c r="B92" s="161">
+      <c r="B92" s="98">
         <v>158.77232018048153</v>
       </c>
     </row>
@@ -4846,7 +4889,7 @@
       <c r="A93">
         <v>4550</v>
       </c>
-      <c r="B93" s="161">
+      <c r="B93" s="98">
         <v>160.44653391451857</v>
       </c>
     </row>
@@ -4854,7 +4897,7 @@
       <c r="A94">
         <v>4600</v>
       </c>
-      <c r="B94" s="161">
+      <c r="B94" s="98">
         <v>162.12074764855561</v>
       </c>
     </row>
@@ -4862,7 +4905,7 @@
       <c r="A95">
         <v>4650</v>
       </c>
-      <c r="B95" s="161">
+      <c r="B95" s="98">
         <v>163.79496138259265</v>
       </c>
     </row>
@@ -4870,7 +4913,7 @@
       <c r="A96">
         <v>4700</v>
       </c>
-      <c r="B96" s="161">
+      <c r="B96" s="98">
         <v>165.46917511662969</v>
       </c>
     </row>
@@ -4878,7 +4921,7 @@
       <c r="A97">
         <v>4750</v>
       </c>
-      <c r="B97" s="161">
+      <c r="B97" s="98">
         <v>167.14338885066672</v>
       </c>
     </row>
@@ -4886,7 +4929,7 @@
       <c r="A98">
         <v>4800</v>
       </c>
-      <c r="B98" s="161">
+      <c r="B98" s="98">
         <v>168.81760258470376</v>
       </c>
     </row>
@@ -4894,7 +4937,7 @@
       <c r="A99">
         <v>4850</v>
       </c>
-      <c r="B99" s="161">
+      <c r="B99" s="98">
         <v>170.4918163187408</v>
       </c>
     </row>
@@ -4902,7 +4945,7 @@
       <c r="A100">
         <v>4900</v>
       </c>
-      <c r="B100" s="161">
+      <c r="B100" s="98">
         <v>172.16603005277784</v>
       </c>
     </row>
@@ -4910,7 +4953,7 @@
       <c r="A101">
         <v>4950</v>
       </c>
-      <c r="B101" s="161">
+      <c r="B101" s="98">
         <v>173.84024378681488</v>
       </c>
     </row>
@@ -4918,7 +4961,7 @@
       <c r="A102">
         <v>5000</v>
       </c>
-      <c r="B102" s="161">
+      <c r="B102" s="98">
         <v>175.51445752085192</v>
       </c>
     </row>
@@ -4926,7 +4969,7 @@
       <c r="A103">
         <v>5050</v>
       </c>
-      <c r="B103" s="161">
+      <c r="B103" s="98">
         <v>177.18867125488896</v>
       </c>
     </row>
@@ -4934,7 +4977,7 @@
       <c r="A104">
         <v>5100</v>
       </c>
-      <c r="B104" s="161">
+      <c r="B104" s="98">
         <v>178.862884988926</v>
       </c>
     </row>
@@ -4942,7 +4985,7 @@
       <c r="A105">
         <v>5150</v>
       </c>
-      <c r="B105" s="161">
+      <c r="B105" s="98">
         <v>180.53709872296304</v>
       </c>
     </row>
@@ -4950,7 +4993,7 @@
       <c r="A106">
         <v>5200</v>
       </c>
-      <c r="B106" s="161">
+      <c r="B106" s="98">
         <v>182.21131245700008</v>
       </c>
     </row>
@@ -4958,7 +5001,7 @@
       <c r="A107">
         <v>5250</v>
       </c>
-      <c r="B107" s="161">
+      <c r="B107" s="98">
         <v>183.88552619103712</v>
       </c>
     </row>
@@ -4966,7 +5009,7 @@
       <c r="A108">
         <v>5300</v>
       </c>
-      <c r="B108" s="161">
+      <c r="B108" s="98">
         <v>185.55973992507415</v>
       </c>
     </row>
@@ -4974,7 +5017,7 @@
       <c r="A109">
         <v>5350</v>
       </c>
-      <c r="B109" s="161">
+      <c r="B109" s="98">
         <v>187.23395365911119</v>
       </c>
     </row>
@@ -4982,7 +5025,7 @@
       <c r="A110">
         <v>5400</v>
       </c>
-      <c r="B110" s="161">
+      <c r="B110" s="98">
         <v>188.90816739314823</v>
       </c>
     </row>
@@ -4990,7 +5033,7 @@
       <c r="A111">
         <v>5450</v>
       </c>
-      <c r="B111" s="161">
+      <c r="B111" s="98">
         <v>190.58238112718527</v>
       </c>
     </row>
@@ -4998,7 +5041,7 @@
       <c r="A112">
         <v>5500</v>
       </c>
-      <c r="B112" s="161">
+      <c r="B112" s="98">
         <v>192.25659486122231</v>
       </c>
     </row>
@@ -5006,7 +5049,7 @@
       <c r="A113">
         <v>5550</v>
       </c>
-      <c r="B113" s="161">
+      <c r="B113" s="98">
         <v>193.93080859525935</v>
       </c>
     </row>
@@ -5014,7 +5057,7 @@
       <c r="A114">
         <v>5600</v>
       </c>
-      <c r="B114" s="161">
+      <c r="B114" s="98">
         <v>195.60502232929639</v>
       </c>
     </row>
@@ -5022,7 +5065,7 @@
       <c r="A115">
         <v>5650</v>
       </c>
-      <c r="B115" s="161">
+      <c r="B115" s="98">
         <v>197.27923606333343</v>
       </c>
     </row>
@@ -5030,7 +5073,7 @@
       <c r="A116">
         <v>5700</v>
       </c>
-      <c r="B116" s="161">
+      <c r="B116" s="98">
         <v>198.95344979737047</v>
       </c>
     </row>
@@ -5038,7 +5081,7 @@
       <c r="A117">
         <v>5750</v>
       </c>
-      <c r="B117" s="161">
+      <c r="B117" s="98">
         <v>200.62766353140751</v>
       </c>
     </row>
@@ -5046,7 +5089,7 @@
       <c r="A118">
         <v>5800</v>
       </c>
-      <c r="B118" s="161">
+      <c r="B118" s="98">
         <v>202.30187726544455</v>
       </c>
     </row>
@@ -5054,7 +5097,7 @@
       <c r="A119">
         <v>5850</v>
       </c>
-      <c r="B119" s="161">
+      <c r="B119" s="98">
         <v>203.97609099948158</v>
       </c>
     </row>
@@ -5062,7 +5105,7 @@
       <c r="A120">
         <v>5900</v>
       </c>
-      <c r="B120" s="161">
+      <c r="B120" s="98">
         <v>205.65030473351862</v>
       </c>
     </row>
@@ -5070,7 +5113,7 @@
       <c r="A121">
         <v>5950</v>
       </c>
-      <c r="B121" s="161">
+      <c r="B121" s="98">
         <v>207.32451846755566</v>
       </c>
     </row>
@@ -5078,7 +5121,7 @@
       <c r="A122">
         <v>6000</v>
       </c>
-      <c r="B122" s="161">
+      <c r="B122" s="98">
         <v>208.9987322015927</v>
       </c>
     </row>
@@ -5086,7 +5129,7 @@
       <c r="A123">
         <v>6050</v>
       </c>
-      <c r="B123" s="161">
+      <c r="B123" s="98">
         <v>210.67294593562974</v>
       </c>
     </row>
@@ -5094,7 +5137,7 @@
       <c r="A124">
         <v>6100</v>
       </c>
-      <c r="B124" s="161">
+      <c r="B124" s="98">
         <v>212.34715966966678</v>
       </c>
     </row>
@@ -5102,7 +5145,7 @@
       <c r="A125">
         <v>6150</v>
       </c>
-      <c r="B125" s="161">
+      <c r="B125" s="98">
         <v>214.02137340370382</v>
       </c>
     </row>
@@ -5110,7 +5153,7 @@
       <c r="A126">
         <v>6200</v>
       </c>
-      <c r="B126" s="161">
+      <c r="B126" s="98">
         <v>215.69558713774086</v>
       </c>
     </row>
@@ -5118,7 +5161,7 @@
       <c r="A127">
         <v>6250</v>
       </c>
-      <c r="B127" s="161">
+      <c r="B127" s="98">
         <v>217.3698008717779</v>
       </c>
     </row>
@@ -5126,7 +5169,7 @@
       <c r="A128">
         <v>6300</v>
       </c>
-      <c r="B128" s="161">
+      <c r="B128" s="98">
         <v>219.04401460581494</v>
       </c>
     </row>
@@ -5134,7 +5177,7 @@
       <c r="A129">
         <v>6350</v>
       </c>
-      <c r="B129" s="161">
+      <c r="B129" s="98">
         <v>220.71822833985198</v>
       </c>
     </row>
@@ -5142,7 +5185,7 @@
       <c r="A130">
         <v>6400</v>
       </c>
-      <c r="B130" s="161">
+      <c r="B130" s="98">
         <v>222.39244207388901</v>
       </c>
     </row>
@@ -5150,7 +5193,7 @@
       <c r="A131">
         <v>6450</v>
       </c>
-      <c r="B131" s="161">
+      <c r="B131" s="98">
         <v>224.06665580792605</v>
       </c>
     </row>
@@ -5158,7 +5201,7 @@
       <c r="A132">
         <v>6500</v>
       </c>
-      <c r="B132" s="161">
+      <c r="B132" s="98">
         <v>225.74086954196309</v>
       </c>
     </row>
@@ -5166,15 +5209,15 @@
       <c r="A133">
         <v>6550</v>
       </c>
-      <c r="B133" s="161">
+      <c r="B133" s="98">
         <v>227.41508327600013</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="161">
+      <c r="A134" s="98">
         <v>6566.8467477486947</v>
       </c>
-      <c r="B134" s="161">
+      <c r="B134" s="98">
         <v>228</v>
       </c>
     </row>
@@ -5182,7 +5225,7 @@
       <c r="A135">
         <v>6600</v>
       </c>
-      <c r="B135" s="161">
+      <c r="B135" s="98">
         <v>229.08929701003717</v>
       </c>
     </row>
@@ -5190,7 +5233,7 @@
       <c r="A136">
         <v>6650</v>
       </c>
-      <c r="B136" s="161">
+      <c r="B136" s="98">
         <v>230.76351074407421</v>
       </c>
     </row>
@@ -5198,7 +5241,7 @@
       <c r="A137">
         <v>6700</v>
       </c>
-      <c r="B137" s="161">
+      <c r="B137" s="98">
         <v>232.43772447811125</v>
       </c>
     </row>
@@ -5206,7 +5249,7 @@
       <c r="A138">
         <v>6750</v>
       </c>
-      <c r="B138" s="161">
+      <c r="B138" s="98">
         <v>234.11193821214829</v>
       </c>
     </row>
@@ -5214,7 +5257,7 @@
       <c r="A139">
         <v>6800</v>
       </c>
-      <c r="B139" s="161">
+      <c r="B139" s="98">
         <v>235.78615194618533</v>
       </c>
     </row>
@@ -5222,7 +5265,7 @@
       <c r="A140">
         <v>6850</v>
       </c>
-      <c r="B140" s="161">
+      <c r="B140" s="98">
         <v>237.46036568022237</v>
       </c>
     </row>
@@ -5230,7 +5273,7 @@
       <c r="A141">
         <v>6900</v>
       </c>
-      <c r="B141" s="161">
+      <c r="B141" s="98">
         <v>239.13457941425941</v>
       </c>
     </row>
@@ -5238,7 +5281,7 @@
       <c r="A142">
         <v>6950</v>
       </c>
-      <c r="B142" s="161">
+      <c r="B142" s="98">
         <v>240.80879314829644</v>
       </c>
     </row>
@@ -5246,7 +5289,7 @@
       <c r="A143">
         <v>7000</v>
       </c>
-      <c r="B143" s="161">
+      <c r="B143" s="98">
         <v>242.48300688233348</v>
       </c>
     </row>
@@ -5254,7 +5297,7 @@
       <c r="A144">
         <v>7050</v>
       </c>
-      <c r="B144" s="161">
+      <c r="B144" s="98">
         <v>244.15722061637052</v>
       </c>
     </row>
@@ -5262,7 +5305,7 @@
       <c r="A145">
         <v>7100</v>
       </c>
-      <c r="B145" s="161">
+      <c r="B145" s="98">
         <v>245.83143435040756</v>
       </c>
     </row>
@@ -5270,7 +5313,7 @@
       <c r="A146">
         <v>7150</v>
       </c>
-      <c r="B146" s="161">
+      <c r="B146" s="98">
         <v>247.5056480844446</v>
       </c>
     </row>
@@ -5278,7 +5321,7 @@
       <c r="A147">
         <v>7200</v>
       </c>
-      <c r="B147" s="161">
+      <c r="B147" s="98">
         <v>249.17986181848164</v>
       </c>
     </row>
@@ -5286,12 +5329,12 @@
       <c r="A148">
         <v>7250</v>
       </c>
-      <c r="B148" s="161">
+      <c r="B148" s="98">
         <v>250.85407555251868</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="161"/>
+      <c r="B149" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
